--- a/ExcelName.xlsx
+++ b/ExcelName.xlsx
@@ -47,13 +47,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Details1</t>
-  </si>
-  <si>
     <t>Check google coordinate</t>
   </si>
   <si>
     <t>Paaji</t>
+  </si>
+  <si>
+    <t>Check google coordinate MO</t>
   </si>
 </sst>
 </file>
@@ -374,12 +374,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>112</v>
